--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ngf-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ngf-Sort1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05916633333333333</v>
+        <v>1.814087666666667</v>
       </c>
       <c r="H2">
-        <v>0.177499</v>
+        <v>5.442263</v>
       </c>
       <c r="I2">
-        <v>0.005840587905374044</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="J2">
-        <v>0.005840587905374045</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N2">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O2">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P2">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q2">
-        <v>0.02972386420733333</v>
+        <v>3.333175653330667</v>
       </c>
       <c r="R2">
-        <v>0.267514777866</v>
+        <v>29.998580879976</v>
       </c>
       <c r="S2">
-        <v>0.0001108210182791793</v>
+        <v>0.00769431989907229</v>
       </c>
       <c r="T2">
-        <v>0.0001108210182791793</v>
+        <v>0.00769431989907229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05916633333333333</v>
+        <v>1.814087666666667</v>
       </c>
       <c r="H3">
-        <v>0.177499</v>
+        <v>5.442263</v>
       </c>
       <c r="I3">
-        <v>0.005840587905374044</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="J3">
-        <v>0.005840587905374045</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.807088</v>
       </c>
       <c r="O3">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P3">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q3">
-        <v>0.03563959032355555</v>
+        <v>1.092738684460444</v>
       </c>
       <c r="R3">
-        <v>0.320756312912</v>
+        <v>9.834648160143999</v>
       </c>
       <c r="S3">
-        <v>0.0001328769255289082</v>
+        <v>0.002522483624866431</v>
       </c>
       <c r="T3">
-        <v>0.0001328769255289082</v>
+        <v>0.002522483624866431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05916633333333333</v>
+        <v>1.814087666666667</v>
       </c>
       <c r="H4">
-        <v>0.177499</v>
+        <v>5.442263</v>
       </c>
       <c r="I4">
-        <v>0.005840587905374044</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="J4">
-        <v>0.005840587905374045</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N4">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O4">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P4">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q4">
-        <v>0.3239238811775556</v>
+        <v>10.03001754079745</v>
       </c>
       <c r="R4">
-        <v>2.915314930598</v>
+        <v>90.27015786717701</v>
       </c>
       <c r="S4">
-        <v>0.001207702138142056</v>
+        <v>0.0231533443114784</v>
       </c>
       <c r="T4">
-        <v>0.001207702138142056</v>
+        <v>0.0231533443114784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05916633333333333</v>
+        <v>1.814087666666667</v>
       </c>
       <c r="H5">
-        <v>0.177499</v>
+        <v>5.442263</v>
       </c>
       <c r="I5">
-        <v>0.005840587905374044</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="J5">
-        <v>0.005840587905374045</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N5">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O5">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P5">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q5">
-        <v>0.4414426360407778</v>
+        <v>5.526535837859111</v>
       </c>
       <c r="R5">
-        <v>3.972983724367</v>
+        <v>49.738822540732</v>
       </c>
       <c r="S5">
-        <v>0.001645853382206427</v>
+        <v>0.01275748388108037</v>
       </c>
       <c r="T5">
-        <v>0.001645853382206427</v>
+        <v>0.01275748388108037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05916633333333333</v>
+        <v>1.814087666666667</v>
       </c>
       <c r="H6">
-        <v>0.177499</v>
+        <v>5.442263</v>
       </c>
       <c r="I6">
-        <v>0.005840587905374044</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="J6">
-        <v>0.005840587905374045</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N6">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O6">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P6">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q6">
-        <v>0.4392065036387777</v>
+        <v>16.36533171126188</v>
       </c>
       <c r="R6">
-        <v>3.952858532749</v>
+        <v>147.287985401357</v>
       </c>
       <c r="S6">
-        <v>0.00163751629426698</v>
+        <v>0.03777781627411559</v>
       </c>
       <c r="T6">
-        <v>0.00163751629426698</v>
+        <v>0.03777781627411559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05916633333333333</v>
+        <v>1.814087666666667</v>
       </c>
       <c r="H7">
-        <v>0.177499</v>
+        <v>5.442263</v>
       </c>
       <c r="I7">
-        <v>0.005840587905374044</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="J7">
-        <v>0.005840587905374045</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N7">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O7">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P7">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q7">
-        <v>0.2965970620767777</v>
+        <v>16.11540001585811</v>
       </c>
       <c r="R7">
-        <v>2.669373558690999</v>
+        <v>145.038600142723</v>
       </c>
       <c r="S7">
-        <v>0.001105818146950494</v>
+        <v>0.03720087265716803</v>
       </c>
       <c r="T7">
-        <v>0.001105818146950494</v>
+        <v>0.03720087265716803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.245094</v>
       </c>
       <c r="I8">
-        <v>0.567448196572592</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J8">
-        <v>0.5674481965725922</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N8">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O8">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P8">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q8">
-        <v>2.887851944510667</v>
+        <v>10.56195326469867</v>
       </c>
       <c r="R8">
-        <v>25.990667500596</v>
+        <v>95.05757938228801</v>
       </c>
       <c r="S8">
-        <v>0.0107669275736774</v>
+        <v>0.02438126748478936</v>
       </c>
       <c r="T8">
-        <v>0.0107669275736774</v>
+        <v>0.02438126748478936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.245094</v>
       </c>
       <c r="I9">
-        <v>0.567448196572592</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J9">
-        <v>0.5674481965725922</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.807088</v>
       </c>
       <c r="O9">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P9">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q9">
         <v>3.462600269585778</v>
@@ -1013,10 +1013,10 @@
         <v>31.163402426272</v>
       </c>
       <c r="S9">
-        <v>0.01290979144207585</v>
+        <v>0.007993084351910654</v>
       </c>
       <c r="T9">
-        <v>0.01290979144207586</v>
+        <v>0.007993084351910654</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.245094</v>
       </c>
       <c r="I10">
-        <v>0.567448196572592</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J10">
-        <v>0.5674481965725922</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N10">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O10">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P10">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q10">
-        <v>31.47115070930978</v>
+        <v>31.78247639129179</v>
       </c>
       <c r="R10">
-        <v>283.240356383788</v>
+        <v>286.0422875216261</v>
       </c>
       <c r="S10">
-        <v>0.1173355167987467</v>
+        <v>0.07336683270650654</v>
       </c>
       <c r="T10">
-        <v>0.1173355167987467</v>
+        <v>0.07336683270650654</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.245094</v>
       </c>
       <c r="I11">
-        <v>0.567448196572592</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J11">
-        <v>0.5674481965725922</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N11">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O11">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P11">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q11">
-        <v>42.8888036221669</v>
+        <v>17.51213236446845</v>
       </c>
       <c r="R11">
-        <v>385.9992325995021</v>
+        <v>157.609191280216</v>
       </c>
       <c r="S11">
-        <v>0.159904541920618</v>
+        <v>0.04042509682694788</v>
       </c>
       <c r="T11">
-        <v>0.159904541920618</v>
+        <v>0.04042509682694788</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.245094</v>
       </c>
       <c r="I12">
-        <v>0.567448196572592</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J12">
-        <v>0.5674481965725922</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N12">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O12">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P12">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q12">
-        <v>42.67154992795489</v>
+        <v>51.85741367182955</v>
       </c>
       <c r="R12">
-        <v>384.0439493515941</v>
+        <v>466.716723046466</v>
       </c>
       <c r="S12">
-        <v>0.159094543750476</v>
+        <v>0.1197079216424956</v>
       </c>
       <c r="T12">
-        <v>0.159094543750476</v>
+        <v>0.1197079216424956</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.245094</v>
       </c>
       <c r="I13">
-        <v>0.567448196572592</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J13">
-        <v>0.5674481965725922</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N13">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O13">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P13">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q13">
-        <v>28.81618609478289</v>
+        <v>51.06544614273045</v>
       </c>
       <c r="R13">
-        <v>259.345674853046</v>
+        <v>459.5890152845741</v>
       </c>
       <c r="S13">
-        <v>0.1074368750869982</v>
+        <v>0.117879739706606</v>
       </c>
       <c r="T13">
-        <v>0.1074368750869982</v>
+        <v>0.117879739706606</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.322670666666666</v>
+        <v>7.416845666666667</v>
       </c>
       <c r="H14">
-        <v>12.968012</v>
+        <v>22.250537</v>
       </c>
       <c r="I14">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="J14">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N14">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O14">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P14">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q14">
-        <v>2.171614644178666</v>
+        <v>13.62759355840267</v>
       </c>
       <c r="R14">
-        <v>19.544531797608</v>
+        <v>122.648342025624</v>
       </c>
       <c r="S14">
-        <v>0.008096543050364318</v>
+        <v>0.03145800737747225</v>
       </c>
       <c r="T14">
-        <v>0.008096543050364318</v>
+        <v>0.03145800737747225</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.322670666666666</v>
+        <v>7.416845666666667</v>
       </c>
       <c r="H15">
-        <v>12.968012</v>
+        <v>22.250537</v>
       </c>
       <c r="I15">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="J15">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.807088</v>
       </c>
       <c r="O15">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P15">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q15">
-        <v>2.603815429895111</v>
+        <v>4.467630934028445</v>
       </c>
       <c r="R15">
-        <v>23.434338869056</v>
+        <v>40.208678406256</v>
       </c>
       <c r="S15">
-        <v>0.009707939564628464</v>
+        <v>0.01031310233022267</v>
       </c>
       <c r="T15">
-        <v>0.009707939564628464</v>
+        <v>0.01031310233022267</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.322670666666666</v>
+        <v>7.416845666666667</v>
       </c>
       <c r="H16">
-        <v>12.968012</v>
+        <v>22.250537</v>
       </c>
       <c r="I16">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="J16">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N16">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O16">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P16">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q16">
-        <v>23.66576024764711</v>
+        <v>41.00744054489146</v>
       </c>
       <c r="R16">
-        <v>212.991842228824</v>
+        <v>369.0669649040231</v>
       </c>
       <c r="S16">
-        <v>0.08823427636128561</v>
+        <v>0.09466178761965195</v>
       </c>
       <c r="T16">
-        <v>0.08823427636128561</v>
+        <v>0.09466178761965195</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.322670666666666</v>
+        <v>7.416845666666667</v>
       </c>
       <c r="H17">
-        <v>12.968012</v>
+        <v>22.250537</v>
       </c>
       <c r="I17">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="J17">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N17">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O17">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P17">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q17">
-        <v>32.25163748239955</v>
+        <v>22.59508409316312</v>
       </c>
       <c r="R17">
-        <v>290.2647373415959</v>
+        <v>203.355756838468</v>
       </c>
       <c r="S17">
-        <v>0.1202454459500816</v>
+        <v>0.0521586088586462</v>
       </c>
       <c r="T17">
-        <v>0.1202454459500816</v>
+        <v>0.0521586088586462</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.322670666666666</v>
+        <v>7.416845666666667</v>
       </c>
       <c r="H18">
-        <v>12.968012</v>
+        <v>22.250537</v>
       </c>
       <c r="I18">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="J18">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N18">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O18">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P18">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q18">
-        <v>32.08826646722355</v>
+        <v>66.90919177531589</v>
       </c>
       <c r="R18">
-        <v>288.7943982050119</v>
+        <v>602.182725977843</v>
       </c>
       <c r="S18">
-        <v>0.1196363413554428</v>
+        <v>0.1544535239819191</v>
       </c>
       <c r="T18">
-        <v>0.1196363413554428</v>
+        <v>0.1544535239819191</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.322670666666666</v>
+        <v>7.416845666666667</v>
       </c>
       <c r="H19">
-        <v>12.968012</v>
+        <v>22.250537</v>
       </c>
       <c r="I19">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="J19">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N19">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O19">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P19">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q19">
-        <v>21.66927284196755</v>
+        <v>65.88735316956412</v>
       </c>
       <c r="R19">
-        <v>195.0234555777079</v>
+        <v>592.9861785260771</v>
       </c>
       <c r="S19">
-        <v>0.08079066924023105</v>
+        <v>0.1520947064650506</v>
       </c>
       <c r="T19">
-        <v>0.08079066924023104</v>
+        <v>0.1520947064650506</v>
       </c>
     </row>
   </sheetData>
